--- a/version.final/time_attendance/517100-2567-1-Computer Programing.xlsx
+++ b/version.final/time_attendance/517100-2567-1-Computer Programing.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="517100-2567-1-Computer Programing" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,64 +424,470 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Course ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Midterm Exam</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Final Exam</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Midterm Start Time</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Final Start Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>517100</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Computer Programing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2567</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10:59</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Student ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>630710654</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>นายธนัวต ศิลป์สะอาด</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>650710151</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>นางสาวกรณิการ์ เต้นลือ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>650710167</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>นายอัครพนธ์ อุดมทรัพย์</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>650710728</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>นางสาวสุภัทรา เค้าสำราญ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>650710861</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>นายเจษฎาพร อมรจิตรเวชกุล</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>650710867</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>นางสาวดวงพร โคตมี</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>650710868</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>นางสาวธมกร นันทเศรษฐสิริ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>650710873</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>นายภูริภัทร ลิสอน</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>660710073</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>นายจักรภพ ภูมิพัฒน์</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>660710082</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>นายธนากร จุลเจริญ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>11/11/2024</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>07:38:19</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11:00:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>660710090</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>นายพฤกษินันท์ คำระหงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>660710251</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>นายภูริ พุ่มจิตร</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>660710626</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>นายรชต กระเช้าเพ็ชร์</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>660710748</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>นางสาวอธิชา กิจเจริญ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>660710757</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>นายณัฐสิทธิ์ หุ่นปั้น</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>660710976</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>นายจักรพรรดิ โพธิพิภัทรกุล</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>670710121</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>นายกฤตเมธ ไทยภักดี</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>670710125</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>นายฐิติพงศ์ ราชธานี</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>670710127</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>นายณัฐพงศ์ อวชัย</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>670710128</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>นางสาวธนัญญา พรมภักดี</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>670710133</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>นายนวภูมิ ปั้นหลวง</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>670710136</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>นายปิยวัฒน์ เดียนประไพ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>670710140</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>นายภัทรดนัย คนชม</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>670710143</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>นางสาวศุภิสรา สอนดี</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>670710148</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>นายภัทรกฤต สังครบ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>670710152</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>นายอังกฤษ ถ้ำสุวรรณ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>670710291</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>นางสาวณัฐณิชา ภู่วงษ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>670710296</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>นายสิรวิชญ์ เชี่ยวชาญ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>670710625</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>นางสาวณัฐสุรางค์ ชาติทองคำ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>670710630</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>นางสาวพิชญธิดา รักดี</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>670710636</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>นางสาวอชิรญา สมใจ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>670710645</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>นายชาญวุฒิ งามยิ่ง</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>670710646</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>นายณัฐชนน รักวงศ์</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>670710652</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>นายวรท ลักษณะ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>670710654</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>นางสาวอาธารดา พรหมแทนสุด</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/version.final/time_attendance/517100-2567-1-Computer Programing.xlsx
+++ b/version.final/time_attendance/517100-2567-1-Computer Programing.xlsx
@@ -628,12 +628,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11:00:01</t>
+          <t>00:05:14</t>
         </is>
       </c>
     </row>
